--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +929,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +949,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +969,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +989,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1009,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1029,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1049,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1069,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1089,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1109,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1129,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1149,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1169,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1189,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1209,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1229,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1249,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1269,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1289,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,7 +1309,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1326,7 +1329,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1346,7 +1349,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1366,7 +1369,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1386,7 +1389,7 @@
         <v>39.05</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>39.05</v>
@@ -1406,7 +1409,7 @@
         <v>124.04</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1420,7 +1423,7 @@
         <v>114.28</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,7 +1443,7 @@
         <v>39.05</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>39.05</v>
@@ -1460,7 +1463,7 @@
         <v>124.04</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1474,7 +1477,49 @@
         <v>114.28</v>
       </c>
       <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>124.04</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>114.28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
+      </c>
+      <c r="D49">
+        <v>120.01</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>62.29</v>
@@ -600,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -617,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>106.71</v>
@@ -629,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -637,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>167.14</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>159</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>162.71</v>
@@ -689,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>139.57</v>
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>95.14</v>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>98.70999999999999</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>47.57</v>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -797,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>40.43</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>15.71</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -837,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>22.29</v>
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -857,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>12.29</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -877,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>10.57</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>5.29</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>8.140000000000001</v>
@@ -929,7 +935,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>5.43</v>
@@ -949,7 +955,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>6.86</v>
@@ -969,7 +975,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>6.43</v>
@@ -989,7 +995,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>6.29</v>
@@ -1009,7 +1015,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>4.43</v>
@@ -1029,7 +1035,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1049,7 +1055,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1069,7 +1075,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>7.29</v>
@@ -1089,7 +1095,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1109,7 +1115,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>24.71</v>
@@ -1129,7 +1135,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>17.29</v>
@@ -1149,7 +1155,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>26.71</v>
@@ -1169,7 +1175,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>31.14</v>
@@ -1189,7 +1195,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>51.43</v>
@@ -1209,7 +1215,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1217,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>57.14</v>
@@ -1229,7 +1235,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1237,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>72.56999999999999</v>
@@ -1249,7 +1255,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1257,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>76.86</v>
@@ -1269,7 +1275,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1277,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>87.70999999999999</v>
@@ -1289,7 +1295,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1297,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>108.57</v>
@@ -1309,7 +1315,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1317,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>114.86</v>
@@ -1329,7 +1335,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1337,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>94.70999999999999</v>
@@ -1349,7 +1355,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1357,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>124.71</v>
@@ -1369,7 +1375,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1377,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>166</v>
@@ -1389,7 +1395,7 @@
         <v>39.05</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J41">
         <v>39.05</v>
@@ -1403,13 +1409,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>145.43</v>
       </c>
       <c r="D42">
         <v>124.04</v>
       </c>
+      <c r="E42">
+        <v>21.39</v>
+      </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J42">
+        <v>30.22</v>
+      </c>
+      <c r="K42">
+        <v>19.12</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1417,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>114.28</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1431,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1443,13 +1461,13 @@
         <v>39.05</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J44">
-        <v>39.05</v>
+        <v>33.16</v>
       </c>
       <c r="K44">
-        <v>23.52</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1457,13 +1475,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>145.43</v>
       </c>
       <c r="D45">
         <v>124.04</v>
       </c>
+      <c r="E45">
+        <v>21.39</v>
+      </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J45">
+        <v>30.22</v>
+      </c>
+      <c r="K45">
+        <v>19.12</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1471,13 +1501,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>114.28</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1485,13 +1515,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>145.43</v>
       </c>
       <c r="D47">
         <v>124.04</v>
       </c>
+      <c r="E47">
+        <v>21.39</v>
+      </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J47">
+        <v>28.45</v>
+      </c>
+      <c r="K47">
+        <v>18.23</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1499,13 +1541,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>114.28</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1513,13 +1555,55 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>120.01</v>
       </c>
       <c r="F49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>114.28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
+      </c>
+      <c r="D51">
+        <v>120.01</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <v>122.26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>62.29</v>
@@ -606,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -623,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>106.71</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>167.14</v>
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>159</v>
@@ -675,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>162.71</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>139.57</v>
@@ -715,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>95.14</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>98.70999999999999</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>47.57</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>40.43</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>15.71</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>22.29</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>12.29</v>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>10.57</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>5.29</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>8.140000000000001</v>
@@ -935,7 +941,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>5.43</v>
@@ -955,7 +961,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>6.86</v>
@@ -975,7 +981,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>6.43</v>
@@ -995,7 +1001,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>6.29</v>
@@ -1015,7 +1021,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>4.43</v>
@@ -1035,7 +1041,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1055,7 +1061,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1075,7 +1081,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>7.29</v>
@@ -1095,7 +1101,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1115,7 +1121,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>24.71</v>
@@ -1135,7 +1141,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>17.29</v>
@@ -1155,7 +1161,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>26.71</v>
@@ -1175,7 +1181,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>31.14</v>
@@ -1195,7 +1201,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>51.43</v>
@@ -1215,7 +1221,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1223,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>57.14</v>
@@ -1235,7 +1241,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1243,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>72.56999999999999</v>
@@ -1255,7 +1261,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1263,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>76.86</v>
@@ -1275,7 +1281,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1283,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>87.70999999999999</v>
@@ -1295,7 +1301,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1303,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>108.57</v>
@@ -1315,7 +1321,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1323,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>114.86</v>
@@ -1335,7 +1341,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1343,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>94.70999999999999</v>
@@ -1355,7 +1361,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1363,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>124.71</v>
@@ -1375,7 +1381,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1383,25 +1389,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D41">
         <v>126.95</v>
       </c>
       <c r="E41">
-        <v>39.05</v>
+        <v>25.9</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J41">
-        <v>39.05</v>
+        <v>25.9</v>
       </c>
       <c r="K41">
-        <v>23.52</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,25 +1415,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D42">
         <v>124.04</v>
       </c>
       <c r="E42">
-        <v>21.39</v>
+        <v>17.96</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J42">
-        <v>30.22</v>
+        <v>21.93</v>
       </c>
       <c r="K42">
-        <v>19.12</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,13 +1441,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>144.86</v>
       </c>
       <c r="D43">
         <v>114.28</v>
       </c>
+      <c r="E43">
+        <v>30.58</v>
+      </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>24.81</v>
+      </c>
+      <c r="K43">
+        <v>16.9</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,25 +1467,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D44">
         <v>126.95</v>
       </c>
       <c r="E44">
-        <v>39.05</v>
+        <v>25.9</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J44">
-        <v>33.16</v>
+        <v>25.09</v>
       </c>
       <c r="K44">
-        <v>20.58</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1475,25 +1493,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D45">
         <v>124.04</v>
       </c>
       <c r="E45">
-        <v>21.39</v>
+        <v>17.96</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J45">
-        <v>30.22</v>
+        <v>23.66</v>
       </c>
       <c r="K45">
-        <v>19.12</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1501,13 +1519,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>144.86</v>
       </c>
       <c r="D46">
         <v>114.28</v>
       </c>
+      <c r="E46">
+        <v>30.58</v>
+      </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>24.81</v>
+      </c>
+      <c r="K46">
+        <v>16.9</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1515,25 +1545,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D47">
         <v>124.04</v>
       </c>
       <c r="E47">
-        <v>21.39</v>
+        <v>17.96</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J47">
-        <v>28.45</v>
+        <v>23.84</v>
       </c>
       <c r="K47">
-        <v>18.23</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1541,69 +1571,171 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>144.86</v>
       </c>
       <c r="D48">
         <v>114.28</v>
       </c>
+      <c r="E48">
+        <v>30.58</v>
+      </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>24.68</v>
+      </c>
+      <c r="K48">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>133.43</v>
       </c>
       <c r="D49">
         <v>120.01</v>
       </c>
+      <c r="E49">
+        <v>13.42</v>
+      </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J49">
+        <v>23.43</v>
+      </c>
+      <c r="K49">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>144.86</v>
       </c>
       <c r="D50">
         <v>114.28</v>
       </c>
+      <c r="E50">
+        <v>30.58</v>
+      </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <v>24.14</v>
+      </c>
+      <c r="K50">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>133.43</v>
       </c>
       <c r="D51">
         <v>120.01</v>
       </c>
+      <c r="E51">
+        <v>13.42</v>
+      </c>
       <c r="F51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J51">
+        <v>23.17</v>
+      </c>
+      <c r="K51">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>122.26</v>
       </c>
       <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>133.43</v>
+      </c>
+      <c r="D53">
+        <v>116.69</v>
+      </c>
+      <c r="E53">
+        <v>16.74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53">
+        <v>22.63</v>
+      </c>
+      <c r="K53">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>58</v>
+      </c>
+      <c r="D54">
+        <v>120.97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>139.51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +944,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +964,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +984,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1004,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1024,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1044,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1064,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1084,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1104,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1124,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1144,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1164,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1184,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1204,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1224,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1244,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1264,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1284,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1304,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1324,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1344,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1364,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1384,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1404,7 @@
         <v>25.9</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J41">
         <v>25.9</v>
@@ -1427,7 +1430,7 @@
         <v>17.96</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J42">
         <v>21.93</v>
@@ -1453,7 +1456,7 @@
         <v>30.58</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J43">
         <v>24.81</v>
@@ -1479,7 +1482,7 @@
         <v>25.9</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J44">
         <v>25.09</v>
@@ -1505,7 +1508,7 @@
         <v>17.96</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J45">
         <v>23.66</v>
@@ -1531,7 +1534,7 @@
         <v>30.58</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J46">
         <v>24.81</v>
@@ -1557,7 +1560,7 @@
         <v>17.96</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J47">
         <v>23.84</v>
@@ -1583,7 +1586,7 @@
         <v>30.58</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J48">
         <v>24.68</v>
@@ -1609,7 +1612,7 @@
         <v>13.42</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J49">
         <v>23.43</v>
@@ -1635,7 +1638,7 @@
         <v>30.58</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J50">
         <v>24.14</v>
@@ -1661,7 +1664,7 @@
         <v>13.42</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J51">
         <v>23.17</v>
@@ -1681,7 +1684,7 @@
         <v>122.26</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1701,7 +1704,7 @@
         <v>16.74</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J53">
         <v>22.63</v>
@@ -1721,7 +1724,7 @@
         <v>120.97</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1735,7 +1738,49 @@
         <v>139.51</v>
       </c>
       <c r="F55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>120.97</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57">
+        <v>139.51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
+      </c>
+      <c r="D58">
+        <v>147.42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>62.29</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>106.71</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>167.14</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>159</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>162.71</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>139.57</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>95.14</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>98.70999999999999</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>47.57</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>40.43</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>15.71</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>22.29</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>12.29</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>10.57</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>5.29</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>8.140000000000001</v>
@@ -944,7 +950,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>5.43</v>
@@ -964,7 +970,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>6.86</v>
@@ -984,7 +990,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>6.43</v>
@@ -1004,7 +1010,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>6.29</v>
@@ -1024,7 +1030,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>4.43</v>
@@ -1044,7 +1050,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1064,7 +1070,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1084,7 +1090,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>7.29</v>
@@ -1104,7 +1110,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1124,7 +1130,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>24.71</v>
@@ -1144,7 +1150,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>17.29</v>
@@ -1164,7 +1170,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>26.71</v>
@@ -1184,7 +1190,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>31.14</v>
@@ -1204,7 +1210,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>51.43</v>
@@ -1224,7 +1230,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>57.14</v>
@@ -1244,7 +1250,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>72.56999999999999</v>
@@ -1264,7 +1270,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>76.86</v>
@@ -1284,7 +1290,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>87.70999999999999</v>
@@ -1304,7 +1310,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>108.57</v>
@@ -1324,7 +1330,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>114.86</v>
@@ -1344,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1352,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>94.70999999999999</v>
@@ -1364,7 +1370,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1372,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>124.71</v>
@@ -1384,7 +1390,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1392,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>152.86</v>
@@ -1404,7 +1410,7 @@
         <v>25.9</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>25.9</v>
@@ -1418,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>142</v>
@@ -1430,7 +1436,7 @@
         <v>17.96</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J42">
         <v>21.93</v>
@@ -1444,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>144.86</v>
@@ -1456,7 +1462,7 @@
         <v>30.58</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J43">
         <v>24.81</v>
@@ -1470,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>152.86</v>
@@ -1482,7 +1488,7 @@
         <v>25.9</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
         <v>25.09</v>
@@ -1496,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1508,7 +1514,7 @@
         <v>17.96</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45">
         <v>23.66</v>
@@ -1522,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>144.86</v>
@@ -1534,7 +1540,7 @@
         <v>30.58</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46">
         <v>24.81</v>
@@ -1548,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>142</v>
@@ -1560,7 +1566,7 @@
         <v>17.96</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J47">
         <v>23.84</v>
@@ -1574,7 +1580,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>144.86</v>
@@ -1586,7 +1592,7 @@
         <v>30.58</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J48">
         <v>24.68</v>
@@ -1600,25 +1606,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D49">
         <v>120.01</v>
       </c>
       <c r="E49">
-        <v>13.42</v>
+        <v>17.99</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J49">
-        <v>23.43</v>
+        <v>23.94</v>
       </c>
       <c r="K49">
-        <v>16.14</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1626,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1638,13 +1644,13 @@
         <v>30.58</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J50">
-        <v>24.14</v>
+        <v>24.6</v>
       </c>
       <c r="K50">
-        <v>16.63</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,25 +1658,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <v>120.01</v>
       </c>
       <c r="E51">
-        <v>13.42</v>
+        <v>17.99</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J51">
-        <v>23.17</v>
+        <v>24</v>
       </c>
       <c r="K51">
-        <v>16.04</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1678,13 +1684,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>106</v>
       </c>
       <c r="D52">
         <v>122.26</v>
       </c>
+      <c r="E52">
+        <v>16.26</v>
+      </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J52">
+        <v>23.35</v>
+      </c>
+      <c r="K52">
+        <v>16.47</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1692,25 +1710,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D53">
         <v>116.69</v>
       </c>
       <c r="E53">
-        <v>16.74</v>
+        <v>21.31</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J53">
-        <v>22.63</v>
+        <v>23.2</v>
       </c>
       <c r="K53">
-        <v>15.74</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1718,13 +1736,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>106</v>
       </c>
       <c r="D54">
         <v>120.97</v>
       </c>
+      <c r="E54">
+        <v>14.97</v>
+      </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J54">
+        <v>22.61</v>
+      </c>
+      <c r="K54">
+        <v>16.23</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1732,13 +1762,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>76.86</v>
       </c>
       <c r="D55">
         <v>139.51</v>
       </c>
+      <c r="E55">
+        <v>62.65</v>
+      </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J55">
+        <v>25.28</v>
+      </c>
+      <c r="K55">
+        <v>20.59</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1746,13 +1788,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>106</v>
       </c>
       <c r="D56">
         <v>120.97</v>
       </c>
+      <c r="E56">
+        <v>14.97</v>
+      </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J56">
+        <v>24.63</v>
+      </c>
+      <c r="K56">
+        <v>20.18</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1760,13 +1814,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>76.86</v>
       </c>
       <c r="D57">
         <v>139.51</v>
       </c>
+      <c r="E57">
+        <v>62.65</v>
+      </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J57">
+        <v>26.87</v>
+      </c>
+      <c r="K57">
+        <v>23.79</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1774,13 +1840,67 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58">
         <v>147.42</v>
       </c>
       <c r="F58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>76.86</v>
+      </c>
+      <c r="D59">
+        <v>139.51</v>
+      </c>
+      <c r="E59">
+        <v>62.65</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>28.86</v>
+      </c>
+      <c r="K59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
+      </c>
+      <c r="D60">
+        <v>147.42</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>145.49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -203,6 +206,12 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>62.29</v>
@@ -621,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -638,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>106.71</v>
@@ -650,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>167.14</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>159</v>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>162.71</v>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>139.57</v>
@@ -730,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>95.14</v>
@@ -750,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>98.70999999999999</v>
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>47.57</v>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>40.43</v>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>15.71</v>
@@ -850,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>22.29</v>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>12.29</v>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>10.57</v>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>5.29</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>8.140000000000001</v>
@@ -950,7 +959,7 @@
         <v>21.23</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>5.43</v>
@@ -970,7 +979,7 @@
         <v>23.22</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>6.86</v>
@@ -990,7 +999,7 @@
         <v>20.45</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>6.43</v>
@@ -1010,7 +1019,7 @@
         <v>14.13</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>6.29</v>
@@ -1030,7 +1039,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>4.43</v>
@@ -1050,7 +1059,7 @@
         <v>4.98</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1070,7 +1079,7 @@
         <v>2.19</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1090,7 +1099,7 @@
         <v>3.85</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>7.29</v>
@@ -1110,7 +1119,7 @@
         <v>2.82</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1130,7 +1139,7 @@
         <v>14.37</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>24.71</v>
@@ -1150,7 +1159,7 @@
         <v>18.38</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>17.29</v>
@@ -1170,7 +1179,7 @@
         <v>2.32</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>26.71</v>
@@ -1190,7 +1199,7 @@
         <v>91.98999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>31.14</v>
@@ -1210,7 +1219,7 @@
         <v>11.59</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>51.43</v>
@@ -1230,7 +1239,7 @@
         <v>11.12</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>57.14</v>
@@ -1250,7 +1259,7 @@
         <v>5.82</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>72.56999999999999</v>
@@ -1270,7 +1279,7 @@
         <v>22.85</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>76.86</v>
@@ -1290,7 +1299,7 @@
         <v>13.16</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>87.70999999999999</v>
@@ -1310,7 +1319,7 @@
         <v>31.22</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>108.57</v>
@@ -1330,7 +1339,7 @@
         <v>24.06</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>114.86</v>
@@ -1350,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>94.70999999999999</v>
@@ -1370,7 +1379,7 @@
         <v>26.65</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>124.71</v>
@@ -1390,7 +1399,7 @@
         <v>0.22</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>152.86</v>
@@ -1410,7 +1419,7 @@
         <v>25.9</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>25.9</v>
@@ -1424,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>142</v>
@@ -1436,7 +1445,7 @@
         <v>17.96</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>21.93</v>
@@ -1450,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>144.86</v>
@@ -1462,7 +1471,7 @@
         <v>30.58</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J43">
         <v>24.81</v>
@@ -1476,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>152.86</v>
@@ -1488,7 +1497,7 @@
         <v>25.9</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J44">
         <v>25.09</v>
@@ -1502,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1514,7 +1523,7 @@
         <v>17.96</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>23.66</v>
@@ -1528,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>144.86</v>
@@ -1540,7 +1549,7 @@
         <v>30.58</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>24.81</v>
@@ -1554,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>142</v>
@@ -1566,7 +1575,7 @@
         <v>17.96</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J47">
         <v>23.84</v>
@@ -1580,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>144.86</v>
@@ -1592,7 +1601,7 @@
         <v>30.58</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J48">
         <v>24.68</v>
@@ -1606,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>138</v>
@@ -1618,7 +1627,7 @@
         <v>17.99</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>23.94</v>
@@ -1632,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1644,7 +1653,7 @@
         <v>30.58</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J50">
         <v>24.6</v>
@@ -1658,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1670,7 +1679,7 @@
         <v>17.99</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J51">
         <v>24</v>
@@ -1684,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>106</v>
@@ -1696,7 +1705,7 @@
         <v>16.26</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J52">
         <v>23.35</v>
@@ -1710,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>138</v>
@@ -1722,7 +1731,7 @@
         <v>21.31</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J53">
         <v>23.2</v>
@@ -1736,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>106</v>
@@ -1748,7 +1757,7 @@
         <v>14.97</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J54">
         <v>22.61</v>
@@ -1762,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>76.86</v>
@@ -1774,7 +1783,7 @@
         <v>62.65</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J55">
         <v>25.28</v>
@@ -1788,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>106</v>
@@ -1800,7 +1809,7 @@
         <v>14.97</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J56">
         <v>24.63</v>
@@ -1814,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>76.86</v>
@@ -1826,7 +1835,7 @@
         <v>62.65</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J57">
         <v>26.87</v>
@@ -1840,13 +1849,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>56.14</v>
       </c>
       <c r="D58">
         <v>147.42</v>
       </c>
+      <c r="E58">
+        <v>91.28</v>
+      </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J58">
+        <v>30.45</v>
+      </c>
+      <c r="K58">
+        <v>31.5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1854,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>76.86</v>
@@ -1866,13 +1887,13 @@
         <v>62.65</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J59">
-        <v>28.86</v>
+        <v>32.14</v>
       </c>
       <c r="K59">
-        <v>27</v>
+        <v>34.13</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1880,13 +1901,25 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>56.14</v>
       </c>
       <c r="D60">
         <v>147.42</v>
       </c>
+      <c r="E60">
+        <v>91.28</v>
+      </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J60">
+        <v>35.1</v>
+      </c>
+      <c r="K60">
+        <v>40.55</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1894,13 +1927,55 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61">
         <v>145.49</v>
       </c>
       <c r="F61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
+      </c>
+      <c r="D62">
+        <v>145.49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>137.62</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>130.55</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
